--- a/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>USEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,176 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +846,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +878,17 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,66 +916,93 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,66 +1011,87 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1103,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,115 +1115,151 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1287,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,66 +1325,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1439,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1477,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1515,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1553,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,57 +1571,75 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,71 +1667,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1770,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,26 +1786,29 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1818,17 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,25 +1856,34 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1616,25 +1894,34 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1645,25 +1932,34 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1674,26 +1970,35 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +2008,17 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,26 +2046,35 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>98200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G48" s="3">
         <v>12300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>12500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +2084,17 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +2122,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2160,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,26 +2198,35 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2236,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,26 +2274,35 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>128100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G54" s="3">
         <v>13400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>13200</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2312,17 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2334,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,26 +2350,29 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,26 +2382,35 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,26 +2420,35 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,26 +2458,35 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,26 +2496,35 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G61" s="3">
         <v>4200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>4500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2106,25 +2534,34 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2572,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2610,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2648,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,26 +2686,35 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>83800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2724,17 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2746,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2778,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2816,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2854,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,26 +2892,35 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-2500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2930,17 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2968,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +3006,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,26 +3044,35 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G76" s="3">
         <v>7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +3082,17 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,71 +3120,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,37 +3223,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3293,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3331,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3369,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3407,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3445,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
         <v>2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,37 +3505,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3575,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,37 +3613,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>55900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-19600</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3673,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3705,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3743,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3781,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,37 +3819,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,33 +3895,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>USEA</t>
   </si>
@@ -728,7 +728,7 @@
         <v>14900</v>
       </c>
       <c r="E8" s="3">
-        <v>7900</v>
+        <v>5700</v>
       </c>
       <c r="F8" s="3">
         <v>2200</v>
@@ -766,7 +766,7 @@
         <v>6200</v>
       </c>
       <c r="E9" s="3">
-        <v>4300</v>
+        <v>2800</v>
       </c>
       <c r="F9" s="3">
         <v>1500</v>
@@ -804,7 +804,7 @@
         <v>8700</v>
       </c>
       <c r="E10" s="3">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
@@ -933,8 +933,8 @@
       <c r="D14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -972,7 +972,7 @@
         <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1023,7 +1023,7 @@
         <v>-23000</v>
       </c>
       <c r="E17" s="3">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="F17" s="3">
         <v>2600</v>
@@ -1061,7 +1061,7 @@
         <v>37900</v>
       </c>
       <c r="E18" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
@@ -1112,7 +1112,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="E21" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1229,7 +1229,7 @@
         <v>36500</v>
       </c>
       <c r="E23" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
@@ -1343,7 +1343,7 @@
         <v>36500</v>
       </c>
       <c r="E26" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F26" s="3">
         <v>-700</v>
@@ -1378,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32900</v>
+        <v>34200</v>
       </c>
       <c r="E27" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="F27" s="3">
         <v>-700</v>
@@ -1568,7 +1568,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32900</v>
+        <v>34200</v>
       </c>
       <c r="E33" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="3">
         <v>-700</v>
@@ -1682,10 +1682,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32900</v>
+        <v>34200</v>
       </c>
       <c r="E35" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="F35" s="3">
         <v>-700</v>
@@ -1795,7 +1795,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69900</v>
+        <v>54700</v>
       </c>
       <c r="E41" s="3">
         <v>21200</v>
@@ -1870,8 +1870,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>800</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1908,8 +1908,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1946,8 +1946,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>4200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1985,7 +1985,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>69900</v>
+        <v>59800</v>
       </c>
       <c r="E46" s="3">
         <v>21200</v>
@@ -2061,7 +2061,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50200</v>
+        <v>37500</v>
       </c>
       <c r="E48" s="3">
         <v>98200</v>
@@ -2213,7 +2213,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5500</v>
+        <v>28300</v>
       </c>
       <c r="E52" s="3">
         <v>8600</v>
@@ -2358,8 +2358,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>3000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2396,8 +2396,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>7500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2434,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>14700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2472,8 +2472,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>25200</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2511,7 +2511,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42600</v>
+        <v>35100</v>
       </c>
       <c r="E61" s="3">
         <v>76300</v>
@@ -2549,7 +2549,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18500</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>7500</v>
@@ -2906,8 +2906,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>29400</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -3178,10 +3178,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32900</v>
+        <v>34200</v>
       </c>
       <c r="E81" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="3">
         <v>-700</v>
@@ -3460,10 +3460,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="E89" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="F89" s="3">
         <v>-600</v>
@@ -3513,14 +3513,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3628,10 +3628,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>55900</v>
+        <v>26100</v>
       </c>
       <c r="E94" s="3">
-        <v>-19600</v>
+        <v>-19100</v>
       </c>
       <c r="F94" s="3">
         <v>-500</v>
@@ -3834,10 +3834,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12100</v>
+        <v>16600</v>
       </c>
       <c r="E100" s="3">
-        <v>38900</v>
+        <v>38300</v>
       </c>
       <c r="F100" s="3">
         <v>600</v>
@@ -3909,11 +3909,11 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>21700</v>
       </c>
       <c r="F102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>USEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,52 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,35 +720,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>14900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,35 +761,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>6200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,35 +802,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E10" s="3">
         <v>8700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,8 +862,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,22 +942,25 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -949,11 +969,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,35 +983,38 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,35 +1040,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E17" s="3">
         <v>-23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,35 +1079,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>37900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,17 +1139,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1124,17 +1158,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,35 +1178,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>38400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
-        <v>500</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,35 +1219,38 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,35 +1260,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>36500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1301,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,35 +1383,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>36500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,35 +1424,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>34200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,17 +1629,20 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1580,17 +1650,17 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1600,35 +1670,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>34200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,35 +1752,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>34200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,40 +1793,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,29 +1875,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,8 +1914,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,28 +1955,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1903,19 +1996,22 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -1923,8 +2019,8 @@
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1941,28 +2037,31 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1979,29 +2078,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E46" s="3">
         <v>59800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2055,29 +2160,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E48" s="3">
         <v>37500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>98200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2201,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,28 +2324,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>28300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,29 +2406,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E54" s="3">
         <v>125700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>128100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,29 +2483,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,29 +2522,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,29 +2563,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>14700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,29 +2604,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>25200</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,29 +2645,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E61" s="3">
         <v>35100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>76300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2543,19 +2686,22 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2563,8 +2709,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,29 +2850,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E66" s="3">
         <v>61100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,29 +3072,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>29400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,29 +3236,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E76" s="3">
         <v>64600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,40 +3318,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,35 +3364,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>34200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3424,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3237,24 +3436,24 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
-        <v>200</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,35 +3668,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="I89" s="3">
-        <v>300</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,8 +3728,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3534,8 +3755,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,34 +3849,37 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E94" s="3">
         <v>26100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,35 +4071,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>16600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>38300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +4112,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3904,35 +4153,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E102" s="3">
         <v>48700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USEA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>USEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,215 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>14900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +889,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,8 +932,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,69 +979,81 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1015,11 +1061,11 @@
       <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
+        <v>600</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1073,14 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,90 +1093,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-23000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>37900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,28 +1206,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1169,11 +1237,11 @@
       <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-100</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1181,131 +1249,155 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>38400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>36500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1345,8 +1437,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,90 +1484,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>36500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>34200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1625,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1672,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1719,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,28 +1766,34 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1661,11 +1801,11 @@
       <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>100</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1673,49 +1813,61 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>34200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,95 +1907,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>34200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +2029,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,35 +2048,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
         <v>20000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>54700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2091,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,34 +2138,40 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -1999,16 +2185,22 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2016,17 +2208,17 @@
       <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2040,34 +2232,40 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2081,34 +2279,40 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F46" s="3">
         <v>20000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>59800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>21200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="3">
+        <v>500</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2122,8 +2326,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,35 +2373,41 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>155500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>138400</v>
+      </c>
+      <c r="F48" s="3">
         <v>117000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>37500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>98200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>12900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,8 +2420,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2467,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2514,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,35 +2561,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>28300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2608,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,35 +2655,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>153600</v>
+      </c>
+      <c r="F54" s="3">
         <v>142400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>125700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>128100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2702,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2725,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,16 +2744,18 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
-        <v>3000</v>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2501,18 +2763,18 @@
       <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,35 +2787,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,35 +2834,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>14700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,35 +2881,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
         <v>25200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,35 +2928,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>78200</v>
+      </c>
+      <c r="F61" s="3">
         <v>69500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>35100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>76300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2689,34 +2975,40 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F62" s="3">
         <v>11000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>7500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2730,8 +3022,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +3069,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +3116,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,35 +3163,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94400</v>
+      </c>
+      <c r="F66" s="3">
         <v>80400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>61100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>83800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3210,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3233,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3276,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3323,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3034,8 +3370,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,35 +3417,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>29400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3464,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3511,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3558,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,35 +3605,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F76" s="3">
         <v>61900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>64600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>44300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3652,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,95 +3699,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>34200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3821,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,17 +3837,17 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -3457,8 +3855,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>600</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3466,8 +3864,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3911,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3958,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +4005,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +4052,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,49 +4099,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,8 +4169,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3758,11 +4200,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3770,8 +4212,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4259,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,31 +4306,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-52100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>26100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3884,8 +4344,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -3893,8 +4353,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4376,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4419,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4466,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4513,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,49 +4560,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F100" s="3">
         <v>6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>16600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>38300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,45 +4654,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-49900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>48700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>21700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
